--- a/Aufgabenplan.xlsx
+++ b/Aufgabenplan.xlsx
@@ -475,7 +475,7 @@
   <dimension ref="A1:P84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
